--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_Main_Board_BOM_All_V12.6_07-16-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_Main_Board_BOM_All_V12.6_07-16-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F91716-EE10-4CF0-BFCA-D83AD4690716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA241C-1392-424C-B294-490DCF8482AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Board Summary" sheetId="6" r:id="rId1"/>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>490-HSE-B20250-040H</t>
-  </si>
-  <si>
-    <t>* Check This Number for correctness *</t>
   </si>
   <si>
     <t>664-AD0412HXK96XT1</t>
@@ -840,6 +837,9 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>For U1, U3</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1909,7 @@
   </sheetPr>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1923,7 +1923,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.6">
@@ -1931,17 +1931,17 @@
     </row>
     <row r="3" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="21">
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="21">
@@ -1995,7 +1995,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="21">
@@ -2061,7 +2061,7 @@
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
@@ -2099,8 +2099,8 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2137,16 +2137,16 @@
         <v>44</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -2223,10 +2223,10 @@
         <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H5" s="13">
         <v>0.17</v>
@@ -2244,7 +2244,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>75</v>
@@ -2289,7 +2289,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="13">
         <v>0.24</v>
@@ -2310,7 +2310,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -2328,13 +2328,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="D10" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E10" s="1"/>
       <c r="H10" s="13">
@@ -2353,16 +2353,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H11" s="13">
         <v>1.41</v>
@@ -2383,7 +2383,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
         <v>20</v>
@@ -2401,13 +2401,13 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" t="s">
         <v>174</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" t="s">
-        <v>175</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -2425,10 +2425,10 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
         <v>78</v>
@@ -2473,7 +2473,7 @@
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H16" s="13">
         <v>0.1</v>
@@ -2509,13 +2509,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="10">
         <v>0.1</v>
@@ -2614,13 +2614,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="H23" s="13">
         <v>0.1</v>
@@ -2635,14 +2635,14 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="32" t="s">
         <v>129</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>130</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H24" s="10">
         <v>0.39</v>
@@ -2666,7 +2666,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" s="10">
         <v>31.5</v>
@@ -2684,13 +2684,13 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="10">
         <v>14.4</v>
@@ -2705,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>46</v>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>48</v>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>50</v>
@@ -2810,13 +2810,13 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H32" s="13">
         <v>1.71</v>
@@ -2831,13 +2831,13 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" t="s">
         <v>89</v>
-      </c>
-      <c r="E33" t="s">
-        <v>90</v>
       </c>
       <c r="H33" s="10">
         <v>0.02</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>58</v>
@@ -2861,7 +2861,7 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H34" s="10">
         <v>0.22</v>
@@ -2876,16 +2876,16 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H35" s="10">
         <v>0.5</v>
@@ -2895,7 +2895,7 @@
         <v>0.5</v>
       </c>
       <c r="J35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2939,7 +2939,7 @@
         <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H37" s="10">
         <v>0.48</v>
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>65</v>
@@ -2966,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H38" s="10">
         <v>0.48</v>
@@ -2981,16 +2981,16 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H39" s="10">
         <v>0.13</v>
@@ -3005,13 +3005,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H40" s="10">
         <v>0.8</v>
@@ -3029,13 +3029,13 @@
         <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
         <v>20</v>
       </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H41" s="10">
         <v>0.02</v>
@@ -3050,13 +3050,13 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H42" s="10">
         <v>0.79</v>
@@ -3071,16 +3071,16 @@
         <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="10">
         <v>0.02</v>
@@ -3095,13 +3095,13 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H44" s="10">
         <v>0.18</v>
@@ -3116,13 +3116,13 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H45" s="10">
         <v>0.02</v>
@@ -3137,13 +3137,13 @@
         <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="10">
         <v>0.17</v>
@@ -3158,13 +3158,13 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" s="10">
         <v>0.79</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3184,7 +3184,7 @@
         <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H48" s="10">
         <v>0.5</v>
@@ -3202,7 +3202,7 @@
         <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H49" s="10">
         <v>0.22</v>
@@ -3217,13 +3217,13 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
@@ -3244,7 +3244,7 @@
         <v>69</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="D51" t="s">
         <v>79</v>
@@ -3262,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="I52" s="15"/>
     </row>
@@ -3281,12 +3281,12 @@
     </row>
     <row r="54" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3301,8 +3301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654AF2B0-A25E-4579-92A7-2605A258747F}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3339,16 +3339,16 @@
         <v>44</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>152</v>
-      </c>
       <c r="J1" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3359,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -3404,7 +3404,7 @@
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H4" s="13">
         <v>0.17</v>
@@ -3422,7 +3422,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>75</v>
@@ -3467,7 +3467,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>20</v>
@@ -3488,16 +3488,16 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="13">
         <v>1.41</v>
@@ -3518,7 +3518,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -3563,7 +3563,7 @@
         <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H11" s="13">
         <v>0.1</v>
@@ -3599,13 +3599,13 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H13" s="10">
         <v>0.1</v>
@@ -3662,14 +3662,14 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H16" s="10">
         <v>0.39</v>
@@ -3693,7 +3693,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="10">
         <v>31.5</v>
@@ -3711,13 +3711,13 @@
         <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="10">
         <v>14.4</v>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
@@ -3753,7 +3753,7 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -3795,13 +3795,13 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" t="s">
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H22" s="13">
         <v>1.71</v>
@@ -3816,13 +3816,13 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>88</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>89</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
       </c>
       <c r="H23" s="10">
         <v>0.02</v>
@@ -3837,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
         <v>58</v>
@@ -3846,7 +3846,7 @@
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="10">
         <v>0.22</v>
@@ -3864,13 +3864,13 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H25" s="10">
         <v>0.5</v>
@@ -3880,7 +3880,7 @@
         <v>0.5</v>
       </c>
       <c r="J25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3924,7 +3924,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H27" s="10">
         <v>0.48</v>
@@ -3939,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
         <v>65</v>
@@ -3951,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H28" s="10">
         <v>0.48</v>
@@ -3966,16 +3966,16 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H29" s="10">
         <v>0.13</v>
@@ -3990,13 +3990,13 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H30" s="10">
         <v>0.8</v>
@@ -4014,13 +4014,13 @@
         <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H31" s="10">
         <v>0.02</v>
@@ -4035,13 +4035,13 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H32" s="10">
         <v>0.79</v>
@@ -4056,16 +4056,16 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H33" s="10">
         <v>0.02</v>
@@ -4080,13 +4080,13 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H34" s="10">
         <v>0.18</v>
@@ -4101,13 +4101,13 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H35" s="10">
         <v>0.02</v>
@@ -4122,13 +4122,13 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H36" s="10">
         <v>0.17</v>
@@ -4143,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
         <v>121</v>
       </c>
-      <c r="C37" t="s">
-        <v>122</v>
-      </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H37" s="10">
         <v>0.79</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4169,7 +4169,7 @@
         <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="10">
         <v>0.5</v>
@@ -4187,7 +4187,7 @@
         <v>68</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H39" s="10">
         <v>0.22</v>
@@ -4202,13 +4202,13 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E40" t="s">
         <v>20</v>
@@ -4229,7 +4229,7 @@
         <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="D41" t="s">
         <v>79</v>
@@ -4247,10 +4247,10 @@
         <v>1</v>
       </c>
       <c r="B42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" t="s">
         <v>127</v>
-      </c>
-      <c r="C42" t="s">
-        <v>128</v>
       </c>
       <c r="I42" s="15"/>
     </row>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4309,10 +4309,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4323,7 +4323,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -4365,7 +4365,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>75</v>
@@ -4389,7 +4389,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="13">
         <v>0.24</v>
@@ -4404,13 +4404,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E6" s="13">
         <v>5.05</v>
@@ -4425,10 +4425,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>78</v>
@@ -4488,7 +4488,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>48</v>
@@ -4542,7 +4542,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4585,10 +4585,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4596,13 +4596,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E2" s="13">
         <v>0.28000000000000003</v>
@@ -4617,13 +4617,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="13">
         <v>5.05</v>
@@ -4638,13 +4638,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E4" s="13">
         <v>0.1</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
